--- a/data/input_excel/IEEE_controllable_text_generation.xlsx
+++ b/data/input_excel/IEEE_controllable_text_generation.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,11 @@
           <t>Text generation is an important research field in natural language processing, and current pre-trained models can generate text with very high readability and fluency. However, the content of the generated text cannot be controlled, and it is easy to generate text with weak relevance. Therefore, a controllable text generation method is urgently needed. Traditional controllable text generation methods often have the disadvantages of high training costs and difficult adjustments. This paper presents a method to control text generation by text. By extracting keywords from the data set built by yourself, the sequence of keywords is organized into text information that is controlled to be generated. Insert a module into the language model, use this module to make the initial text interact with the control text, and then perform subsequent generation. And two different training tasks are designed so that the model learns how to control text generation by controlling text information while maintaining a high degree of fluency and diversity of text generation. Experiments have shown that this method can better complete the task of controlling text generation through text, without greatly reducing the fluency and diversity of the generated text, and has a better control effect.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Training;Costs;Image processing;Conferences;Encyclopedias;Natural language processing;Internet;controllable text generation;language model;GPT2;TF-IDF</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>10.1109/ICSIP52628.2021.9688767</t>
@@ -539,7 +543,11 @@
           <t>Text generation is an important research field in natural language processing. Today pre-trained models can generate text with high readability and fluency. However, the generated text content is usually not restricted, and the generated content cannot be controlled. Therefore, there is an urgent need for a controllable text generation method. Traditional controllable text generation methods usually have the disadvantages of high training cost and difficulty in adjustment. We propose a lightweight and easy-to-adjust method to update the language model through the discrimination results of the text classification model on the language model, thereby completing controllable text generation. And we have solved the problem of imbalance and quality degradation in text generation. Experiments show that the quality of the text generated by this method can also reach a higher level with strong subjectivity, can achieves the purpose of controlling text generation. And this method is easy to adjust, suitable for various scenarios.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Degradation;Training;Computational modeling;Text categorization;Natural language processing;Information systems;Text generation;Language model;Text classification;KL divergence</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>10.1109/CISCE52179.2021.9445873</t>
@@ -573,7 +581,11 @@
           <t>Controllable text generation is the primary technique for controlling specific attributes such as topic, keywords and obtaining augmented data. This work proposes a novel controllable text generation framework to improve the controllability of generation models. First, we introduce semantic control grammar, a controllable input format to generate sentences that satisfy the constraints. Second, we adopt a generation and rerank method to obtain semantically reranked controlled sentences. Extensive experiments and analyses are conducted on benchmark, natural language understanding, data-to-text generation, and text classification datasets. Through automatic evaluations, we show that our method leads to improvement over strong baselines. The results show that our model can control sentence and word attributes and semantically generate natural sentences. Furthermore, our techniques improve the generation quality of the model.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Semantics;Grammar;Generators;Decoding;Task analysis;Controllability;Transformers;Test pattern generators;Natural language processing;Controllable text generation;semantic control grammar;natural language generation;deep learning</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>10.1109/ACCESS.2023.3252017</t>
@@ -588,165 +600,181 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021 6th International Conference on Computer Science and Engineering (UBMK)</t>
+          <t>2024 IEEE 4th International Conference on Electronic Technology, Communication and Information (ICETCI)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Topic-Controlled Text Generation</t>
+          <t>Controllable Text Generation Based on Enhanced Non-Residual Attention</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>533-536</t>
+          <t>395-399</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Today, the text generation subject in the field of Natural Language Processing (NLP) has gained a lot of importance. In particular, the quality of the text generated with the emergence of new transformer-based models has reached high levels. In this way, controllable text generation has become an important research area. There are various methods applied for controllable text generation, but since these methods are mostly applied on Recurrent Neural Network (RNN) based encoder decoder models, which were used frequently, studies using transformer-based models are few. Transformer-based models are very successful in long sequences thanks to their parallel working ability. This study aimed to generate Turkish reviews on the desired topics by using a transformer-based language model. We used the method of adding the topic information to the sequential input. We concatenated input token embedding and topic embedding (control) at each time step during the training. As a result, we were able to create Turkish reviews on the specified topics.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>The typical construction method of prompts in CLM results in the combination of prompt text information and input text information being too long, and designing a prompt is challenging. Fixed template combinations can impact the grammatical structure, complicate the understanding of the prompt model, and influence the control effect of the generative model. By enhancing Non-Residual Attention, the prompt model processes prompt information to generate improved prompts. This enables the generative model to access comprehensive enhanced prompt information and input text information at any time step. At the same time, a copying mechanism is incorporated into the generative model to tackle the consistency issue of contextual text and enhance the controllability of the generative model. This enables the model output to encompass input text information or prompt text information, thereby reflecting contextual consistency and improving output control. Based on the ROCStory dataset with labeled characters, emotions, and actions, the results indicate that the enhanced Non-Residual Attention model has better control and generation effects compared to the original method.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Coherence;Syntactics;Controllability;Logic;Context modeling;CLM;the Non-Residual Attention;copying mechanism</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.1109/UBMK52708.2021.9558910</t>
+          <t>10.1109/ICETCI61221.2024.10594398</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Çağlayan, Cansen, Karakaya, Murat</t>
+          <t>Hu, Huiting, Wang, Xing, Zhu, Guohua</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2021 6th International Conference on Computer Science and Engineering (UBMK)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Topic-Controlled Text Generation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>533-536</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Today, the text generation subject in the field of Natural Language Processing (NLP) has gained a lot of importance. In particular, the quality of the text generated with the emergence of new transformer-based models has reached high levels. In this way, controllable text generation has become an important research area. There are various methods applied for controllable text generation, but since these methods are mostly applied on Recurrent Neural Network (RNN) based encoder decoder models, which were used frequently, studies using transformer-based models are few. Transformer-based models are very successful in long sequences thanks to their parallel working ability. This study aimed to generate Turkish reviews on the desired topics by using a transformer-based language model. We used the method of adding the topic information to the sequential input. We concatenated input token embedding and topic embedding (control) at each time step during the training. As a result, we were able to create Turkish reviews on the specified topics.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Training;Computer science;Recurrent neural networks;Transformers;Natural language processing;Decoding;text generation;review generation;controllable text generation;topic-controlled text generation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.1109/UBMK52708.2021.9558910</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Çağlayan, Cansen, Karakaya, Murat</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Linguistic Steganography: From Symbolic Space to Semantic Space</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11-15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Previous works about linguistic steganography such as synonym substitution and sampling-based methods usually manipulate observed symbols explicitly to conceal secret information, which may give rise to security risks. In this letter, in order to preclude straightforward operation on observed symbols, we explored generation-based linguistic steganography in latent space by means of encoding secret messages in the selection of implicit attributes (semanteme) of natural language. We proposed a novel framework of linguistic semantic steganography based on rejection sampling strategy. Concretely, we utilized controllable text generation model for embedding and semantic classifier for extraction. In experiments, a model based on CTRL and BERT is implemented for further quantitative assessment. Results reveal that our approach is able to achieve satisfactory efficiency as well as nearly perfect imperceptibility. Our code is available at https://github.com/YangzlTHU/Linguistic-Steganography-and-Steganalysis/tree/master/Steganography/Linguistic-Semantic-Steganography.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Semantics;Linguistics;Aerospace electronics;Signal processing algorithms;Security;Task analysis;Motion pictures;Controllable text generation;linguistic steganography;rejection sampling;semantic steganography</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10.1109/LSP.2020.3042413</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Zhang, Siyu, Yang, Zhongliang, Yang, Jinshuai, Huang, Yongfeng</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>2020 International Joint Conference on Neural Networks (IJCNN)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Tweet to News Conversion: An Investigation into Unsupervised Controllable Text Generation</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>1-8</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Text generator systems have become extremely popular with the advent of recent deep learning models such as encoder-decoder. Controlling the information and style of the generated output without supervision is an important and challenging Natural Language Processing (NLP) task. In this paper we define the task of constructing a coherent paragraph from a set of disaster domain tweets, without any parallel data. We tackle the problem by building two systems in pipeline. The first system focuses on unsupervised style transfer to convert the individual tweets into news sentences. The second system stitches together the outputs from the first system to form a coherent news paragraph. We also propose a novel training mechanism, by splitting the sentences into propositions and training the second system to merge the sentences. We create a validation and test set consisting of tweet-sets and their equivalent news paragraphs to perform empirical evaluation. We also perform human evaluations on our model. In a completely unsupervised setting our model was able to achieve a BLEU score of 19.32, while successfully transferring styles and joining tweets to form a meaningful news paragraph.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Task analysis;Training;Feature extraction;Noise measurement;Generators;Machine learning;Natural language processing;Deep-learning;Unsupervised;Style-transfer;Text generation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>10.1109/IJCNN48605.2020.9206620</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ahmad, Zishan, N.S., Mukuntha, Ekbal, Asif, Bhattacharyya, Pushpak</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2022 IEEE International Conference on Trust, Security and Privacy in Computing and Communications (TrustCom)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cdga: A GAN-based Controllable Domain Generation Algorithm</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>352-360</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Recently Command and Control (C&amp;C) servers have attracted considerable attention in botnets and domain generation algorithms (DGAs) further enhance the stealth of C&amp;C servers. However, Algorithmically Generated Domains (AGDs) generated by DGAs can be easily detected by previous DGA detection approaches. More specifically, the previous DGAs are hard to satisfy domain name rules, low repetition rate, and anti-detection in practical scenarios simultaneously. Designing an outstanding DGA has become a crucial issue from the botnet owner’s perspective. To mitigate these problems, we propose Cdga, a Controllable DGA via Generative Adversarial Networks (GAN), which is a popular backbone model for text generation in the natural language processing (NLP) community.Controllable text generation approaches are adopted by Cdga to ensure no repetition in the generated domain names and compliance with the domain rules. In addition to cheating DGA detectors, GANs are exploited to equip Cdga with a powerful anti-detection ability. Furthermore, our proposed method uses the technique of NLP to force the AGDs to meet language rules, where the generated domain names are difficult for recognition by human. By utilizing the time-dependent seed, Cdga can dynamically generate domain names, ensuring that the malware can connect to the C&amp;C server conditioned on a specific time stamp. Experimental results demonstrate that the domain names generated by our method are realistic enough to be resistant to the state-of-the-art DGA detectors.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>10.1109/TrustCom56396.2022.00056</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Zhai, You, Yang, Jian, Wang, Zixiang, He, Longtao, Yang, Liqun, Li, Zhoujun</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Linguistic Steganography: From Symbolic Space to Semantic Space</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11-15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Previous works about linguistic steganography such as synonym substitution and sampling-based methods usually manipulate observed symbols explicitly to conceal secret information, which may give rise to security risks. In this letter, in order to preclude straightforward operation on observed symbols, we explored generation-based linguistic steganography in latent space by means of encoding secret messages in the selection of implicit attributes (semanteme) of natural language. We proposed a novel framework of linguistic semantic steganography based on rejection sampling strategy. Concretely, we utilized controllable text generation model for embedding and semantic classifier for extraction. In experiments, a model based on CTRL and BERT is implemented for further quantitative assessment. Results reveal that our approach is able to achieve satisfactory efficiency as well as nearly perfect imperceptibility. Our code is available at https://github.com/YangzlTHU/Linguistic-Steganography-and-Steganalysis/tree/master/Steganography/Linguistic-Semantic-Steganography.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10.1109/LSP.2020.3042413</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Zhang, Siyu, Yang, Zhongliang, Yang, Jinshuai, Huang, Yongfeng</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023 IEEE International Conference on Intelligence and Security Informatics (ISI)</t>
+          <t>2024 IEEE International Conference on Multimedia and Expo (ICME)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Controllable News Comment Generation based on Attribute Level Contrastive Learning</t>
+          <t>Maths: Multimodal Transformer-Based Human-Readable Solver</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -756,132 +784,160 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>News comments provide a convenient way for people to express opinions and exchange ideas. Positive comments en-courage a harmonious discussion atmosphere within news media communities. In contrast, offensive or insulting comments may result in cyberbullying and personal psychological trauma, which have particular practical impacts in security-related domains. The automatic generation of news comments with controllable attributes (e.g. sentiment) to assist users and news platform administrators is greatly needed. However, existing research for news comment generation has not addressed the controllable issue yet. On the other hand, existing methods for controllable text generation focus on token-level constraints, which are not applicable to controlling the sentence level attributes for news comment generation. To address this challenging issue, in this paper, we propose an attribute-level contrastive learning method for controllable news comment generation. To apply attribute level constraints on the generated text, our method considers the attributes of the generated comments and the pre-defined attributes as different views of the same attribute, and maximizes their similarity during the training process. We conduct experiments on two publicly available news comment datasets, and the experimental results show that our model achieves competitive performance in news comment generation and attribute controllability.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>Multimodal mathematical reasoning has gained increasing attention in recent times. However, previous effective methods have not tried to reason in the form of natural language. In this paper, we introduce a model named MATHS (MultimodAl Transformer-based Human-readable Solver) for visual arithmetic and geometry problems in multimodal mathematical reasoning tasks. Drawing inspiration from Multimodal Large Language Models (MLLMs), our approach involves generating problem-solving processes expressed in natural language, in order to leverage the inherent reasoning capabilities embedded within language models. To address the challenge of precise calculations for language models, our work proposes a Math-Constrained Generation (MCG) method to impose hard constraints on generated outputs. Extensive experiments demonstrate our model excels in visual arithmetic task, and achieves results that are either better or comparable to existing methods in geometry problems. Code is available at https://github.com/ycpNotFound/MATHS.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Geometry;Visualization;Large language models;Natural languages;Production;Transformers;Cognition;Mathematical models;Problem-solving;Arithmetic;Multimodal;Mathematics Reasoning;Controllable Text Generation</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10.1109/ISI58743.2023.10297146</t>
+          <t>10.1109/ICME57554.2024.10687434</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Zou, Hanyi, Xu, Nan, Kong, Qingchao, Mao, Wenji</t>
+          <t>Pan, Yicheng, Zhang, Zhenrong, Ma, Jiefeng, Hu, Pengfei, Du, Jun, Wang, Qing, Zhang, Jianshu, Liu, Dan, Wei, Si</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024 IEEE 2nd International Conference on Control, Electronics and Computer Technology (ICCECT)</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Topic-Oriented Dialogue Summarization</t>
+          <t>An Improved Self-Supervised Learning Method for Controllable Content Generation in Large Language Models</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1797-1810</t>
+          <t>1502-1507</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A multi-turn dialogue often contains multiple discussion topics. In several scenarios (e.g., customer service dispute, public opinion monitoring), people are only interested in the gist of a specific topic in the dialogue. Therefore, we propose a novel summarization task, i.e., Topic-Oriented Dialogue Summarization (TODS). Given a dialogue with a topic label, TODS aims to produce a summary covering the main content of the given topic in the dialogue. To model the relationship between dialogues and topics, three key abilities are needed for TODS: (1) Learning the semantic information of different topics. (2) Locating the topic-related content in the dialogue. (3) Distinguishing summaries for different topics in the same dialogue. Thus, we propose three topic-related auxiliary tasks to make the summarization model learn the three abilities above. First, the topic identification task aims at generating all the topics in the dialogue. Second, the topic attention restriction task tries to constrain the attention distribution on topic-related utterances. Third, the topic summary distinguishing task focuses on increasing the difference of summaries for different topics in the same dialogue. Experimental results on two public TODS datasets show that all auxiliary tasks are critical for TODS and help generate high-quality summaries. We also point out the expansions and challenges in TODS for future research.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>The widespread application of pretrained large language models for content generation has focused on overcoming the illusion of control in text generation. While fine-grained control at the word and phrase level allows for partially controlled text generation, the probability of producing content that aligns with human natural language patterns remains low. This article proposes an enhanced self-supervised learning approach to improve the quality of controllable text generation for this issue. Building upon the CoCon model, our approach ensures controllability in text generation at both the sentence and word granularity. It amplifies features in a high-dimensional space, filtering out irrelevant feature information to aid the model in generating more precise content. Experimental results on publicly available datasets demonstrate that our approach effectively reduces Perplexity, enhances model performance, and produces text that better conforms to natural language conventions.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Measurement;Training;Solid modeling;Filtering;Computational modeling;Natural languages;Training data;controllable text generation;pretrained large language model;self-supervised learning;Perplexity</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10.1109/TASLP.2023.3271118</t>
+          <t>10.1109/ICCECT60629.2024.10545853</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Lin, Haitao, Zhu, Junnan, Xiang, Lu, Zhai, Feifei, Zhou, Yu, Zhang, Jiajun, Zong, Chengqing</t>
+          <t>Li, Yanda, Guo, Zhaobo, Tan, Yuanjun, Ji, Gaoyang, Zhou, Dongbo</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024 5th International Conference on Computer Vision, Image and Deep Learning (CVIDL)</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Content Order-Controllable MR-to-Text</t>
+          <t>CA-CoCon: An improved self-supervised method for controlled text generation using cross-activation attention mechanism</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>129353-129365</t>
+          <t>846-851</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Content order is critical in natural language generation (NLG) for emphasizing the focus of a generated text passage. In this paper, we propose a novel MR (meaning representation)-to-text method that controls the order of the MR values in a generated text passage based on the given order constraints. We use an MR-text dataset with additional value order annotations to train our order-controllable MR-to-text model. We also use it to train a text-to-MR model to check whether the generated text passage correctly reflects the original MR. Furthermore, we augment the dataset with synthetic MR-text pairs to mitigate the discrepancy in the number of non-empty attributes between the training and test conditions and use it to train another order-controllable MR-to-text model. Our proposed methods demonstrate better NLG performance than the baseline methods without order constraints in automatic and subjective evaluations. In particular, the augmented dataset effectively reduces the number of deletion, insertion, and substitution errors in the generated text passages.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>The widespread application of pre-trained large models in the field of natural language generation has facilitated the development of models capable of generating fluent textual content. While conventional text generation models often struggle to effectively control text content at the sentence level, self-supervised learning models like CoCon offer finer-grained control over generated text at the word and phrase levels. Although the text generated by CoCon tends to adhere closely to the given topic, it still exhibits deviations from human communication norms, lacking in textual diversity. Addressing these issues, we propose a novel approach based on the multi-granularity controllable text generation model, CoCon, termed as Cross-Activation (CA)-CoCon. This approach assists the model in capturing nonlinear features between input text and target content more effectively, thus facilitating the seamless integration of target content into the generated text. The proposed CA-CoCon model outperforms the untreated CoCon model across multiple thematic and emotional attribute categories, yielding text outputs that align more closely with human communication norms and exhibit enhanced textual diversity.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Deep learning;Computer vision;Attention mechanisms;Computational modeling;Semantics;Natural language generation;Focusing;pre-trained large language model;Controllable text generation;Self-supervised learning;Multi-granularity;Nonlinear features</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2023.3334139</t>
+          <t>10.1109/CVIDL62147.2024.10603799</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Toyama, Keisuke, Sudoh, Katsuhito, Nakamura, Satoshi</t>
+          <t>Li, Yanda, Ji, Gaoyang, Guo, Zhaobo, Tan, Yuanjun, Zhou, Dongbo</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021 International Conference on Asian Language Processing (IALP)</t>
+          <t>2022 IEEE International Conference on Trust, Security and Privacy in Computing and Communications (TrustCom)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Latent Attribute Control for Story Generation</t>
+          <t>Cdga: A GAN-based Controllable Domain Generation Algorithm</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>148-153</t>
+          <t>352-360</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Neural open-domain story generation aims to generate long and fluent text as human writing. Recent work attempts to generate stories in fine-grained controls such as plot-like structure and ending valence. Although those outputs comply with the rules of grammar, they generally have logical conflicts and a lack of long-range cohesion because of explicit controlling. In this study, we propose to capture challenging story representation using latent variable modeling for the storytelling model, and we align the encoder output with story latent embeddings. Our approach and baselines are all built on the pre-trained BART language model. Experimental results demonstrated that our model largely improved compared to strong baselines on human evaluation. Human evaluators favored our generated stories, and the results were more relevant to the prompt and more coherent than the baselines.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Recently Command and Control (C&amp;C) servers have attracted considerable attention in botnets and domain generation algorithms (DGAs) further enhance the stealth of C&amp;C servers. However, Algorithmically Generated Domains (AGDs) generated by DGAs can be easily detected by previous DGA detection approaches. More specifically, the previous DGAs are hard to satisfy domain name rules, low repetition rate, and anti-detection in practical scenarios simultaneously. Designing an outstanding DGA has become a crucial issue from the botnet owner’s perspective. To mitigate these problems, we propose Cdga, a Controllable DGA via Generative Adversarial Networks (GAN), which is a popular backbone model for text generation in the natural language processing (NLP) community.Controllable text generation approaches are adopted by Cdga to ensure no repetition in the generated domain names and compliance with the domain rules. In addition to cheating DGA detectors, GANs are exploited to equip Cdga with a powerful anti-detection ability. Furthermore, our proposed method uses the technique of NLP to force the AGDs to meet language rules, where the generated domain names are difficult for recognition by human. By utilizing the time-dependent seed, Cdga can dynamically generate domain names, ensuring that the malware can connect to the C&amp;C server conditioned on a specific time stamp. Experimental results demonstrate that the domain names generated by our method are realistic enough to be resistant to the state-of-the-art DGA detectors.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Command and control systems;Privacy;Botnet;Force;Detectors;Generative adversarial networks;Natural language processing;Command and Control (C&amp;C);Domain generation algorithm (DGA);Wasserstein Generative Adversarial Networks (WGAN);Controllable Text Generation (CTG)</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10.1109/IALP54817.2021.9675173</t>
+          <t>10.1109/TrustCom56396.2022.00056</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tang, Yu-Siou, Wu, Chung-Hsien</t>
+          <t>Zhai, You, Yang, Jian, Wang, Zixiang, He, Longtao, Yang, Liqun, Li, Zhoujun</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023 IEEE International Conference on Intelligence and Security Informatics (ISI)</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Multiple Knowledge-Enhanced Meteorological Social Briefing Generation</t>
+          <t>Controllable News Comment Generation based on Attribute Level Contrastive Learning</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -891,23 +947,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Frequent meteorological disasters present new challenges for decision-making in disaster response. As a timely and effective source of intelligent information, social media plays a vital role in detecting and monitoring these situations. Meteorological social briefings summarize valuable information from numerous social media posts, providing essential decision-support services. This article proposes a multi-knowledge-enhanced summarization (MKES) model for automatically generating meteorological social briefing content from multiple Sina Weibo posts. The MKES model consists of a summary generation module and a knowledge enhancement module. The knowledge enhancement module guides and constrains the summary generation process using meteorological events and geographical location knowledge, resulting in summaries that focus on describing specific knowledge from the source text. The MKES model outperforms baseline models in content evaluation, as measured by $\text{ROUGE-1}$ , $\text{ROUGE-2}$ , and $\text{ROUGE-L}$ scores, and in sentiment evaluation, as measured by $F_1$ scores. Based on the MKES model, a framework for generating meteorological social briefings is developed, providing decision support services for the China Meteorological Administration (CMA).</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>News comments provide a convenient way for people to express opinions and exchange ideas. Positive comments en-courage a harmonious discussion atmosphere within news media communities. In contrast, offensive or insulting comments may result in cyberbullying and personal psychological trauma, which have particular practical impacts in security-related domains. The automatic generation of news comments with controllable attributes (e.g. sentiment) to assist users and news platform administrators is greatly needed. However, existing research for news comment generation has not addressed the controllable issue yet. On the other hand, existing methods for controllable text generation focus on token-level constraints, which are not applicable to controlling the sentence level attributes for news comment generation. To address this challenging issue, in this paper, we propose an attribute-level contrastive learning method for controllable news comment generation. To apply attribute level constraints on the generated text, our method considers the attributes of the generated comments and the pre-defined attributes as different views of the same attribute, and maximizes their similarity during the training process. We conduct experiments on two publicly available news comment datasets, and the experimental results show that our model achieves competitive performance in news comment generation and attribute controllability.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Training;Learning systems;Measurement;Psychology;Cyberbullying;Media;Controllability;controllable text generation;news comment generation;attribute level constraints;contrastive learning</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10.1109/TCSS.2023.3298252</t>
+          <t>10.1109/ISI58743.2023.10297146</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Shi, Kaize, Peng, Xueping, Lu, Hao, Zhu, Yifan, Niu, Zhendong</t>
+          <t>Zou, Hanyi, Xu, Nan, Kong, Qingchao, Mao, Wenji</t>
         </is>
       </c>
     </row>
@@ -915,33 +975,353 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Topic-Oriented Dialogue Summarization</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1797-1810</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A multi-turn dialogue often contains multiple discussion topics. In several scenarios (e.g., customer service dispute, public opinion monitoring), people are only interested in the gist of a specific topic in the dialogue. Therefore, we propose a novel summarization task, i.e., Topic-Oriented Dialogue Summarization (TODS). Given a dialogue with a topic label, TODS aims to produce a summary covering the main content of the given topic in the dialogue. To model the relationship between dialogues and topics, three key abilities are needed for TODS: (1) Learning the semantic information of different topics. (2) Locating the topic-related content in the dialogue. (3) Distinguishing summaries for different topics in the same dialogue. Thus, we propose three topic-related auxiliary tasks to make the summarization model learn the three abilities above. First, the topic identification task aims at generating all the topics in the dialogue. Second, the topic attention restriction task tries to constrain the attention distribution on topic-related utterances. Third, the topic summary distinguishing task focuses on increasing the difference of summaries for different topics in the same dialogue. Experimental results on two public TODS datasets show that all auxiliary tasks are critical for TODS and help generate high-quality summaries. We also point out the expansions and challenges in TODS for future research.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Task analysis;Data mining;Semantics;Customer services;Artificial intelligence;Speech processing;Decoding;Dialogue summarization;abstractive summarization;controllable text generation;natural language processing</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>10.1109/TASLP.2023.3271118</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lin, Haitao, Zhu, Junnan, Xiang, Lu, Zhai, Feifei, Zhou, Yu, Zhang, Jiajun, Zong, Chengqing</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Multiple Knowledge-Enhanced Meteorological Social Briefing Generation</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2002-2013</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Frequent meteorological disasters present new challenges for decision-making in disaster response. As a timely and effective source of intelligent information, social media plays a vital role in detecting and monitoring these situations. Meteorological social briefings summarize valuable information from numerous social media posts, providing essential decision-support services. This article proposes a multi-knowledge-enhanced summarization (MKES) model for automatically generating meteorological social briefing content from multiple Sina Weibo posts. The MKES model consists of a summary generation module and a knowledge enhancement module. The knowledge enhancement module guides and constrains the summary generation process using meteorological events and geographical location knowledge, resulting in summaries that focus on describing specific knowledge from the source text. The MKES model outperforms baseline models in content evaluation, as measured by $\text {ROUGE-1}$ , $\text {ROUGE-2}$ , and $\text {ROUGE-L}$ scores, and in sentiment evaluation, as measured by $F_{1}$ scores. Based on the MKES model, a framework for generating meteorological social briefings is developed, providing decision support services for the China Meteorological Administration (CMA).</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Blogs;Computational modeling;Social networking (online);Decoding;Mathematical models;Semantics;Text recognition;Emergency services;Disasters;Controllable text generation;decision support service;emergency management;meteorological social briefing;natural disaster;social weather</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>10.1109/TCSS.2023.3298252</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Shi, Kaize, Peng, Xueping, Lu, Hao, Zhu, Yifan, Niu, Zhendong</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tailored Definitions With Easy Reach: Complexity-Controllable Definition Generation</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1-12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>The task of complexity-controllable definition generation refers to providing definitions with different readability for words in specific contexts. This task can be utilized to help language learners eliminate reading barriers and facilitate language acquisition. However, the available training data for this task remains scarce due to the difficulty of obtaining reliable definition data and the high cost of data standardization. To tackle those challenges, we introduce a general solution from both the data-driven and method-driven perspectives. We construct a large-scale standard Chinese dataset, COMPILING, which contains both difficult and simple definitions and can serve as a benchmark for future research. Besides, we propose a multitasking framework SimpDefiner for unsupervised controllable definition generation. By designing a parameter-sharing scheme between two decoders, the framework can extract the complexity information from the non-parallel corpus. Moreover, we propose the SimpDefiner guided prompting (SGP) method, where simple definitions generated by SimpDefiner are utilized to construct prompts for GPT-4, hence obtaining more realistic and contextually appropriate definitions. The results demonstrate SimpDefiner's outstanding ability to achieve controllable generation and better results could be achieved when GPT-4 is incorporated.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Dictionaries;Complexity theory;Annotations;Chatbots;Big Data;Training data;Decoding;Costs;Standards;Semantics;Controllable text generation;definition generation;unsupervised style transfer</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10.1109/TBDATA.2024.3522805</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Yang, Liner, Yuan, Jiaxin, Kong, Cunliang, Yu, Jingsi, Chong, Ruining, Liu, Zhenghao, Yang, Erhong</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Content Order-Controllable MR-to-Text</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>129353-129365</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Content order is critical in natural language generation (NLG) for emphasizing the focus of a generated text passage. In this paper, we propose a novel MR (meaning representation)-to-text method that controls the order of the MR values in a generated text passage based on the given order constraints. We use an MR-text dataset with additional value order annotations to train our order-controllable MR-to-text model. We also use it to train a text-to-MR model to check whether the generated text passage correctly reflects the original MR. Furthermore, we augment the dataset with synthetic MR-text pairs to mitigate the discrepancy in the number of non-empty attributes between the training and test conditions and use it to train another order-controllable MR-to-text model. Our proposed methods demonstrate better NLG performance than the baseline methods without order constraints in automatic and subjective evaluations. In particular, the augmented dataset effectively reduces the number of deletion, insertion, and substitution errors in the generated text passages.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Training data;Transformers;Training;Data models;Natural languages;Annotations;Resource description framework;Text processing;Data analysis;Text analysis;Natural language processing;Controllable text generation;data augmentation;data-to-text;meaning representation;natural language generation</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2023.3334139</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Toyama, Keisuke, Sudoh, Katsuhito, Nakamura, Satoshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2021 International Conference on Asian Language Processing (IALP)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Latent Attribute Control for Story Generation</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>148-153</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Neural open-domain story generation aims to generate long and fluent text as human writing. Recent work attempts to generate stories in fine-grained controls such as plot-like structure and ending valence. Although those outputs comply with the rules of grammar, they generally have logical conflicts and a lack of long-range cohesion because of explicit controlling. In this study, we propose to capture challenging story representation using latent variable modeling for the storytelling model, and we align the encoder output with story latent embeddings. Our approach and baselines are all built on the pre-trained BART language model. Experimental results demonstrated that our model largely improved compared to strong baselines on human evaluation. Human evaluators favored our generated stories, and the results were more relevant to the prompt and more coherent than the baselines.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Semantics;Process control;Grammar;Controllable Text Generation;Generative Pre-trained Model;Story Generation</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>10.1109/IALP54817.2021.9675173</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Tang, Yu-Siou, Wu, Chung-Hsien</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Personalized Product Description Generation With Gated Pointer-Generator Transformer</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>52-63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>In the realm of e-commerce, where online shopping has become a staple of daily life, the generation of personalized product descriptions presents a unique challenge and opportunity for enhancing customer experience. Traditional retail interactions allow for personalized communication between salespersons and customers, ensuring that consumer needs are directly addressed. This level of personalization is harder to achieve online, where customers must navigate through generic, often lengthy product descriptions to make informed purchasing decisions. Recognizing the dual necessity of personalizing content to individual preferences while ensuring the descriptions remain faithful to the product's core attributes, this article introduces a novel approach, the gated pointer-generator transformer (GPGT). This framework is designed to bridge the gap between customer preferences and product features, enabling the generation of descriptions that are not only customized to the user's interests—such as emphasizing appearance for fashion-forward individuals or functionality for tech enthusiasts—but also accurately reflect the product's distinctive qualities, including brand names and technical specifications. GPGT leverages the select-attention mechanism combined with a Transformer encoder to capture the nuanced interactions between user attributes and product features, further refined by a copy mechanism during the decoding phase for the precise inclusion of specific product-related terms. Extensive experiments show that our framework substantially improves the quality of generation ($+$10.6% on ROUGE-2 and $+$15.9% on BLEU) while being more faithful to draw people's attention. The results on human evaluation, in terms of fluency, faithfulness, and personalization, also exhibit that descriptions generated by GPGT can be better accepted by real users.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Transformers;Electronic commerce;Decoding;Logic gates;Neural networks;Fuses;Accuracy;Transformer cores;Reviews;Reliability;Controllable text generation;pointer-generator transformer;product description generation;text personalization</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10.1109/TCSS.2024.3396840</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Liang, Yu-Sen, Chen, Chih-Yao, Li, Cheng-Te, Chang, Sheng-Mao</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Controllable Dialogue Generation With Disentangled Multi-Grained Style Specification and Attribute Consistency Reward</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>188-199</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Controllable text generation is an appealing but challenging task, which allows users to specify particular attributes of the generated outputs. In this paper, we propose a controllable dialogue generation model to steer response generation under multi-attribute constraints. Specifically, we define and categorize the commonly-used control attributes into global and local ones, which possess different granularities of effects on response generation. Then, we significantly extend the conventional seq2seq framework by introducing a novel two-stage decoder, which first uses a multi-grained style specification layer to impose the stylistic constraints and determine word-level control states of responses based on the attributes, and then employs a response generation layer to generate final responses maintaining both semantic relevancy to the contexts and fidelity to the attributes. Furthermore, we train our model with an attribute consistency reward to promote response control with explicit supervision signals. Extensive experiments and in-depth analyses on two datasets indicate that our model can significantly outperform competitive baselines in terms of response quality, content diversity and controllability.</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Decoding;Training;Controllability;Context modeling;Semantics;Process control;Predictive models;Controllable generation;style specification;conversational system</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>10.1109/TASLP.2022.3221002</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Hu, Zhe, Cao, Zhiwei, Chan, Hou Pong, Liu, Jiachen, Xiao, Xinyan, Su, Jinsong, Wu, Hua</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024 IEEE/CVF Conference on Computer Vision and Pattern Recognition (CVPR)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Prompt Highlighter: Interactive Control for Multi-Modal LLMs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13215-13224</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>This study targets a critical aspect of multi-modal LLMs' (LLMs&amp;VLMs) inference: explicit controllable text generation. Multi-modal LLMs empower multi-modality understanding with the capability of semantic generation yet bring less explainability and heavier reliance on prompt contents due to their autoregressive generative nature. While manipulating prompt formats could improve outputs, designing specific and precise prompts per task can be challenging and ineffective. To tackle this issue, we introduce a novel inference method, Prompt Highlighter, which enables users to highlight specific prompt spans to interactively control the focus during generation. Motivated by the classifier-free diffusion guidance, we form regular and unconditional context pairs based on highlighted tokens, demonstrating that the autoregressive generation in models can be guided in a classifier-free way. Notably, we find that, during inference, guiding the models with highlighted tokens through the attention weights leads to more desired outputs. Our approach is compatible with current LLMs and VLMs, achieving impressive customized generation results without training. Experiments confirm its effectiveness in focusing on input contexts and generating reliable content. Without tuning on LLaVA-v1.5, our method secured 70.7 in the MMBench test and 1552.5 in MME-perception.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Training;Semantics;Process control;Focusing;Pattern recognition;Reliability;Usability;VLM;LLM;Interactive Control;Image Caption;CFG;Classifier-Free-Guidance;Training-Free</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10.1109/CVPR52733.2024.01255</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Zhang, Yuechen, Qian, Shengju, Peng, Bohao, Liu, Shu, Jia, Jiaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024 IEEE International Conference on Advanced Systems and Emergent Technologies (IC_ASET)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AI - Assisted Text Composition for Automated Content Authoring Using Transformer-Based Language Models</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>In this paper, we introduce a hybrid method that combines the use of Controllable Text Generation (CTG) approach via Large Language Models (LLMs), fine-tuned language models and sentence transformers in a single framework to generate real-author styled articles in Turkish language. As such, we seek to exemplify hybrid solutions that produce real-human styled high-quality contents, given limited resources and relatively short text prompts as inputs. To achieve this, we introduce a novel method to assemble an author-specific article in different coherence and fluency levels, based on phrasal control of the CTG process. Control phrases are automatically assembled based on a semantic correlation measure calculated using sentence embed dings corresponding to author articles, that are obtained from pre-trained sentence transformers.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Training;Large language models;Semantics;Process control;Transformers;Robustness;Hybrid power systems;Machine Learning;Language Models;Text Generation;Text Classification;Customized Content Generation;Transformer Architectures</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10.1109/IC_ASET61847.2024.10596255</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Alpdemir, Yusuf, Alpdemir, Mahmut Nedim</t>
         </is>
       </c>
     </row>
